--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H2">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I2">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J2">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N2">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O2">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P2">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q2">
-        <v>389.8331883448936</v>
+        <v>594.0493930495204</v>
       </c>
       <c r="R2">
-        <v>3508.498695104043</v>
+        <v>5346.444537445683</v>
       </c>
       <c r="S2">
-        <v>0.02104131757848191</v>
+        <v>0.03127115469904827</v>
       </c>
       <c r="T2">
-        <v>0.02267056023832005</v>
+        <v>0.0329965799182228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H3">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I3">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J3">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P3">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q3">
-        <v>122.0915077115727</v>
+        <v>210.1070012386473</v>
       </c>
       <c r="R3">
-        <v>1098.823569404154</v>
+        <v>1890.963011147826</v>
       </c>
       <c r="S3">
-        <v>0.006589911439561821</v>
+        <v>0.01106017212703248</v>
       </c>
       <c r="T3">
-        <v>0.007100172491506089</v>
+        <v>0.01167043100938114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H4">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I4">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J4">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N4">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O4">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P4">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q4">
-        <v>108.5887812139742</v>
+        <v>234.9198025254508</v>
       </c>
       <c r="R4">
-        <v>977.2990309257681</v>
+        <v>2114.278222729057</v>
       </c>
       <c r="S4">
-        <v>0.005861099309384775</v>
+        <v>0.01236633447082885</v>
       </c>
       <c r="T4">
-        <v>0.006314927972574724</v>
+        <v>0.01304866250028806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H5">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I5">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J5">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N5">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O5">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P5">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q5">
-        <v>121.856354725531</v>
+        <v>136.5435953772333</v>
       </c>
       <c r="R5">
-        <v>731.1381283531859</v>
+        <v>819.2615722634001</v>
       </c>
       <c r="S5">
-        <v>0.006577219014168697</v>
+        <v>0.00718774557160397</v>
       </c>
       <c r="T5">
-        <v>0.004724331522338488</v>
+        <v>0.005056225638138454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H6">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I6">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J6">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N6">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O6">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P6">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q6">
-        <v>87.33295674251966</v>
+        <v>269.6577961345924</v>
       </c>
       <c r="R6">
-        <v>785.996610682677</v>
+        <v>2426.920165211332</v>
       </c>
       <c r="S6">
-        <v>0.004713812299278672</v>
+        <v>0.01419496553214443</v>
       </c>
       <c r="T6">
-        <v>0.005078805796468626</v>
+        <v>0.01497819057612468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J7">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N7">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O7">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P7">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q7">
-        <v>1953.875830941985</v>
+        <v>1730.157500980765</v>
       </c>
       <c r="R7">
-        <v>17584.88247847787</v>
+        <v>15571.41750882688</v>
       </c>
       <c r="S7">
-        <v>0.1054608050236035</v>
+        <v>0.09107664025906699</v>
       </c>
       <c r="T7">
-        <v>0.1136267025176389</v>
+        <v>0.09610190822544189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J8">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>104.164566</v>
       </c>
       <c r="O8">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P8">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q8">
         <v>611.93262455083</v>
@@ -948,10 +948,10 @@
         <v>5507.39362095747</v>
       </c>
       <c r="S8">
-        <v>0.03302917523383462</v>
+        <v>0.03221253988576746</v>
       </c>
       <c r="T8">
-        <v>0.03558664536893989</v>
+        <v>0.0339899072144597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J9">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N9">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O9">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P9">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q9">
-        <v>544.2558547316934</v>
+        <v>684.1994339592683</v>
       </c>
       <c r="R9">
-        <v>4898.30269258524</v>
+        <v>6157.794905633415</v>
       </c>
       <c r="S9">
-        <v>0.02937630921568938</v>
+        <v>0.03601671274253448</v>
       </c>
       <c r="T9">
-        <v>0.03165093560181186</v>
+        <v>0.03800398008446048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J10">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N10">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O10">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P10">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q10">
-        <v>610.754018547705</v>
+        <v>397.6806112705</v>
       </c>
       <c r="R10">
-        <v>3664.52411128623</v>
+        <v>2386.083667623</v>
       </c>
       <c r="S10">
-        <v>0.03296555975943914</v>
+        <v>0.02093417157117643</v>
       </c>
       <c r="T10">
-        <v>0.02367873607181921</v>
+        <v>0.01472616051262804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J11">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N11">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O11">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P11">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q11">
-        <v>437.719923612415</v>
+        <v>785.3731762693934</v>
       </c>
       <c r="R11">
-        <v>3939.479312511735</v>
+        <v>7068.358586424541</v>
       </c>
       <c r="S11">
-        <v>0.02362601286530074</v>
+        <v>0.04134256575118798</v>
       </c>
       <c r="T11">
-        <v>0.0254553901321216</v>
+        <v>0.04362369371908653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H12">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I12">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J12">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N12">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O12">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P12">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q12">
-        <v>2965.711549543198</v>
+        <v>3301.315750707622</v>
       </c>
       <c r="R12">
-        <v>26691.40394588879</v>
+        <v>29711.8417563686</v>
       </c>
       <c r="S12">
-        <v>0.1600748228365342</v>
+        <v>0.1737834543030615</v>
       </c>
       <c r="T12">
-        <v>0.1724695186134766</v>
+        <v>0.1833721745666881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H13">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I13">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J13">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.164566</v>
       </c>
       <c r="O13">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P13">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q13">
-        <v>928.8285485868032</v>
+        <v>1167.629427180091</v>
       </c>
       <c r="R13">
-        <v>8359.456937281229</v>
+        <v>10508.66484462082</v>
       </c>
       <c r="S13">
-        <v>0.05013369064278987</v>
+        <v>0.06146478874605295</v>
       </c>
       <c r="T13">
-        <v>0.0540155743311903</v>
+        <v>0.06485618562967693</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H14">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I14">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J14">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N14">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O14">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P14">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q14">
-        <v>826.1046319950177</v>
+        <v>1305.521819068242</v>
       </c>
       <c r="R14">
-        <v>7434.94168795516</v>
+        <v>11749.69637161418</v>
       </c>
       <c r="S14">
-        <v>0.04458914847312481</v>
+        <v>0.06872353586204689</v>
       </c>
       <c r="T14">
-        <v>0.04804171471985855</v>
+        <v>0.07251544323062353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H15">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I15">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J15">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N15">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O15">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P15">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q15">
-        <v>927.0395887253449</v>
+        <v>758.8148853466333</v>
       </c>
       <c r="R15">
-        <v>5562.237532352069</v>
+        <v>4552.8893120798</v>
       </c>
       <c r="S15">
-        <v>0.05003713120735565</v>
+        <v>0.0399445196733617</v>
       </c>
       <c r="T15">
-        <v>0.03594102549132995</v>
+        <v>0.02809900579584752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H16">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I16">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J16">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N16">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O16">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P16">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q16">
-        <v>664.3979173930683</v>
+        <v>1498.571566768734</v>
       </c>
       <c r="R16">
-        <v>5979.581256537615</v>
+        <v>13487.14410091861</v>
       </c>
       <c r="S16">
-        <v>0.03586099900242794</v>
+        <v>0.07888580283106823</v>
       </c>
       <c r="T16">
-        <v>0.03863773906070828</v>
+        <v>0.08323842603764582</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H17">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I17">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J17">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N17">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O17">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P17">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q17">
-        <v>629.0877816094105</v>
+        <v>503.052387798025</v>
       </c>
       <c r="R17">
-        <v>3774.526689656464</v>
+        <v>3018.31432678815</v>
       </c>
       <c r="S17">
-        <v>0.03395512797098067</v>
+        <v>0.02648101188994282</v>
       </c>
       <c r="T17">
-        <v>0.02438953014530509</v>
+        <v>0.01862808997729996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H18">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I18">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J18">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>104.164566</v>
       </c>
       <c r="O18">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P18">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q18">
-        <v>197.023439860819</v>
+        <v>177.92262714655</v>
       </c>
       <c r="R18">
-        <v>1182.140639164914</v>
+        <v>1067.5357628793</v>
       </c>
       <c r="S18">
-        <v>0.01063437617027285</v>
+        <v>0.009365965293557743</v>
       </c>
       <c r="T18">
-        <v>0.007638535139760006</v>
+        <v>0.006588496124610858</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H19">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I19">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J19">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N19">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O19">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P19">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q19">
-        <v>175.2336063832813</v>
+        <v>198.9345818448083</v>
       </c>
       <c r="R19">
-        <v>1051.401638299688</v>
+        <v>1193.60749106885</v>
       </c>
       <c r="S19">
-        <v>0.009458265926479354</v>
+        <v>0.01047204854789053</v>
       </c>
       <c r="T19">
-        <v>0.006793750332301215</v>
+        <v>0.007366571315609172</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H20">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I20">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J20">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N20">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O20">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P20">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q20">
-        <v>196.6439650630065</v>
+        <v>115.6277280925</v>
       </c>
       <c r="R20">
-        <v>786.5758602520259</v>
+        <v>462.51091237</v>
       </c>
       <c r="S20">
-        <v>0.01061389394871622</v>
+        <v>0.006086720422553552</v>
       </c>
       <c r="T20">
-        <v>0.005082548682926949</v>
+        <v>0.002854472383689606</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H21">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I21">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J21">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N21">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O21">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P21">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q21">
-        <v>140.9323209545095</v>
+        <v>228.3513792304333</v>
       </c>
       <c r="R21">
-        <v>845.593925727057</v>
+        <v>1370.1082753826</v>
       </c>
       <c r="S21">
-        <v>0.007606847777292938</v>
+        <v>0.01202056830493329</v>
       </c>
       <c r="T21">
-        <v>0.005463900572944149</v>
+        <v>0.00845587883473666</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H22">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I22">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J22">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N22">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O22">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P22">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q22">
-        <v>2766.358624057768</v>
+        <v>1679.606950605656</v>
       </c>
       <c r="R22">
-        <v>24897.22761651991</v>
+        <v>15116.4625554509</v>
       </c>
       <c r="S22">
-        <v>0.149314712253986</v>
+        <v>0.08841562570472622</v>
       </c>
       <c r="T22">
-        <v>0.1608762457957084</v>
+        <v>0.0932940688523556</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H23">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I23">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J23">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>104.164566</v>
       </c>
       <c r="O23">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P23">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q23">
-        <v>866.3933840935855</v>
+        <v>594.0535985396174</v>
       </c>
       <c r="R23">
-        <v>7797.540456842269</v>
+        <v>5346.482386856556</v>
       </c>
       <c r="S23">
-        <v>0.04676374122995466</v>
+        <v>0.03127137607884084</v>
       </c>
       <c r="T23">
-        <v>0.05038468758282898</v>
+        <v>0.03299681351292336</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H24">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I24">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J24">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N24">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O24">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P24">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q24">
-        <v>770.5744928044286</v>
+        <v>664.2089660779492</v>
       </c>
       <c r="R24">
-        <v>6935.170435239857</v>
+        <v>5977.880694701542</v>
       </c>
       <c r="S24">
-        <v>0.04159189906281355</v>
+        <v>0.03496440123285675</v>
       </c>
       <c r="T24">
-        <v>0.04481238637327157</v>
+        <v>0.03689360596613589</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H25">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I25">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J25">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N25">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O25">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P25">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q25">
-        <v>864.724676784002</v>
+        <v>386.0614530367334</v>
       </c>
       <c r="R25">
-        <v>5188.348060704012</v>
+        <v>2316.3687182204</v>
       </c>
       <c r="S25">
-        <v>0.04667367244798268</v>
+        <v>0.02032253136271561</v>
       </c>
       <c r="T25">
-        <v>0.03352509647835947</v>
+        <v>0.01429590169607315</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H26">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I26">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J26">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N26">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O26">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P26">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q26">
-        <v>619.7375833362594</v>
+        <v>762.4266836594659</v>
       </c>
       <c r="R26">
-        <v>5577.638250026334</v>
+        <v>6861.840152935193</v>
       </c>
       <c r="S26">
-        <v>0.03345044931054531</v>
+        <v>0.04013464713600005</v>
       </c>
       <c r="T26">
-        <v>0.036040538966491</v>
+        <v>0.04234912667785185</v>
       </c>
     </row>
   </sheetData>
